--- a/TermProject/PacketDiagram/PacketDiagram.xlsx
+++ b/TermProject/PacketDiagram/PacketDiagram.xlsx
@@ -4,17 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="717" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Connect" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="LobbyList" sheetId="6" r:id="rId4"/>
+    <sheet name="LobbySelect" sheetId="4" r:id="rId5"/>
+    <sheet name="LobbySendMessage" sheetId="5" r:id="rId6"/>
+    <sheet name="LobbyUserList" sheetId="7" r:id="rId7"/>
+    <sheet name="LobbyExit" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>TestReq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +48,166 @@
   </si>
   <si>
     <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 무조건 통과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리해야할 일들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User has</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 유저매니저에 유저 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success / fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id와 pw를 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send LoginReqPkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recv LoginResPkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbySelect Scene으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbySelectScene 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send LobbyListReqPkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyListReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyListRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobby list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 로비 리스트 보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobby has</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떠났을 때 제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,8 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -420,6 +588,1253 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2162175" y="3819525"/>
           <a:ext cx="2914650" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4810125" y="476250"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="695325"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1857375" y="1123950"/>
+          <a:ext cx="2952750" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1876425" y="2495550"/>
+          <a:ext cx="2619375" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="1895475"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="2057400"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4791075" y="628650"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="847725"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>105087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914526" y="1352551"/>
+          <a:ext cx="2705099" cy="9836"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="2400300"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="742950" y="2619375"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2105026" y="3126938"/>
+          <a:ext cx="2571749" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4791075" y="628650"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="847725"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>105087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914526" y="1352551"/>
+          <a:ext cx="2705099" cy="9836"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="2400300"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="742950" y="2619375"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2105026" y="3126938"/>
+          <a:ext cx="2571749" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4791075" y="628650"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="847725"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>105087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914526" y="1352551"/>
+          <a:ext cx="2705099" cy="9836"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="2400300"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="742950" y="2619375"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2105026" y="3126938"/>
+          <a:ext cx="2571749" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -737,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F9:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -783,4 +2198,338 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="M7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TermProject/PacketDiagram/PacketDiagram.xlsx
+++ b/TermProject/PacketDiagram/PacketDiagram.xlsx
@@ -10,18 +10,16 @@
     <sheet name="Test" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Connect" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
-    <sheet name="LobbyList" sheetId="6" r:id="rId4"/>
-    <sheet name="LobbySelect" sheetId="4" r:id="rId5"/>
-    <sheet name="LobbySendMessage" sheetId="5" r:id="rId6"/>
-    <sheet name="LobbyUserList" sheetId="7" r:id="rId7"/>
-    <sheet name="LobbyExit" sheetId="8" r:id="rId8"/>
+    <sheet name="LobbyUserList" sheetId="7" r:id="rId4"/>
+    <sheet name="LobbyChatReq" sheetId="5" r:id="rId5"/>
+    <sheet name="LobbyExit" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>TestReq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,59 +153,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동으로 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LobbyListReq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LobbyListRes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lobby list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 로비 리스트 보내기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자료구조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자료구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LobbyManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lobby has</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lobby id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lobby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>떠났을 때 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyChatReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other clients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 입력 후 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send LobbyChatReqPkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recv LobbyChatResPkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과에 따른 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyChatResPkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyChartNtfPkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyChatReqPkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REcv LobbyChatNtfPkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyChatRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyChatNtf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender id, msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyUserListReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyUserListRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갱신시킬/필요한 자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newbie id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user id list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginNtf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recv LoginNtf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,6 +1324,101 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1152525" cy="933450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="66675" y="3857625"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1533525" y="4410075"/>
+          <a:ext cx="2571749" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1245,15 +1426,326 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4105275" y="209550"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="428625"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228726" y="933451"/>
+          <a:ext cx="2705099" cy="9836"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4162425" y="2066925"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="57150" y="2200275"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1419226" y="2707838"/>
+          <a:ext cx="2571749" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1298,15 +1790,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1351,15 +1843,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>105087</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1398,15 +1890,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1451,15 +1943,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1504,15 +1996,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>193238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>193238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1549,80 +2041,22 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4791075" y="628650"/>
-          <a:ext cx="885825" cy="1295400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPr id="8" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1640,7 +2074,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="685800" y="847725"/>
+          <a:off x="0" y="3981450"/>
           <a:ext cx="1152525" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1663,168 +2097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>105087</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1914526" y="1352551"/>
-          <a:ext cx="2705099" cy="9836"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4848225" y="2400300"/>
-          <a:ext cx="885825" cy="1295400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="742950" y="2619375"/>
-          <a:ext cx="1152525" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>193238</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>193238</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1833,7 +2114,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2105026" y="3126938"/>
+          <a:off x="1533525" y="4410075"/>
           <a:ext cx="2571749" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2230,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:P17"/>
+  <dimension ref="B3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2249,7 +2530,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="5:16" x14ac:dyDescent="0.3">
@@ -2292,7 +2573,7 @@
         <v>20</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.3">
@@ -2328,7 +2609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J17" s="1" t="s">
         <v>30</v>
       </c>
@@ -2338,6 +2619,181 @@
       <c r="N17" s="1" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H22"/>
+      <c r="J22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2349,143 +2805,701 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:P17"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P27" sqref="A17:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="M7" s="1" t="s">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="1" t="s">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="O8" s="1" t="s">
+      <c r="Q16" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="J15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:E13"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>10</v>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2506,30 +3520,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TermProject/PacketDiagram/PacketDiagram.xlsx
+++ b/TermProject/PacketDiagram/PacketDiagram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="717" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="717" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" state="hidden" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="LobbyUserList" sheetId="7" r:id="rId4"/>
     <sheet name="LobbyChatReq" sheetId="5" r:id="rId5"/>
     <sheet name="LobbyExit" sheetId="8" r:id="rId6"/>
+    <sheet name="RemoveUser" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>TestReq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +295,26 @@
   </si>
   <si>
     <t>Recv LoginNtf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveUserNtf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받으면 해당 이름을 찾아서 삭제한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI -&gt; linked-list로 바꾸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2144,6 +2165,164 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4105275" y="209550"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2038350" y="2085975"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3238500" y="2591112"/>
+          <a:ext cx="2762250" cy="9213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2513,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -2807,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P27" sqref="A17:P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3520,4 +3699,104 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/TermProject/PacketDiagram/PacketDiagram.xlsx
+++ b/TermProject/PacketDiagram/PacketDiagram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="717" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="717" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>TestReq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sender id, msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필요한 자료구조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +311,14 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senderIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender idx, msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2805,7 +2809,7 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H22"/>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>55</v>
@@ -2817,7 +2821,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>56</v>
@@ -2829,7 +2833,7 @@
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -2854,7 +2858,7 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -2874,7 +2878,7 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -3030,7 +3034,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3173,7 +3177,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -3185,7 +3189,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3298,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3463,7 +3467,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>48</v>
@@ -3645,7 +3649,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3668,12 +3672,12 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -3705,7 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3725,7 +3729,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3736,7 +3740,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3780,17 +3784,17 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/TermProject/PacketDiagram/PacketDiagram.xlsx
+++ b/TermProject/PacketDiagram/PacketDiagram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="717" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="717" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" state="hidden" r:id="rId1"/>
@@ -12,15 +12,16 @@
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="LobbyUserList" sheetId="7" r:id="rId4"/>
     <sheet name="LobbyChatReq" sheetId="5" r:id="rId5"/>
-    <sheet name="LobbyExit" sheetId="8" r:id="rId6"/>
+    <sheet name="LobbyWhisper" sheetId="10" r:id="rId6"/>
     <sheet name="RemoveUser" sheetId="9" r:id="rId7"/>
+    <sheet name="LobbyExit" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>TestReq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +320,102 @@
   </si>
   <si>
     <t>sender idx, msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅창에 /w [유저이름] [메세지]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식으로 입력하여 Request 하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력을 분석하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhisperReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판단한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 경우를 나눠 서버에게 Request를 보낸다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetClientIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg, senderClientIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetClientIdx is available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유저이름이 유효하지 않은 경우, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestWhisper는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail코드를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반환한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2170,6 +2267,417 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4105275" y="209550"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="428625"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>105087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228726" y="933451"/>
+          <a:ext cx="2705099" cy="9836"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="40882" t="29729" r="40481" b="36856"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4162425" y="1981200"/>
+          <a:ext cx="885825" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="57150" y="2200275"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>193238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1419226" y="2707838"/>
+          <a:ext cx="2571749" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="irc_mi" descr="https://thumbs.dreamstime.com/z/server-client-communication-2597991.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3207" t="33088" r="72545" b="42892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3981450"/>
+          <a:ext cx="1152525" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1533525" y="4410075"/>
+          <a:ext cx="2571749" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3302,8 +3810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3694,14 +4202,285 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3803,4 +4582,37 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>